--- a/Assets/Questions/Superlative Questions.xlsx
+++ b/Assets/Questions/Superlative Questions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>superlativeQuestion</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Best nickname</t>
   </si>
   <si>
-    <t>How many shoes do you own?</t>
-  </si>
-  <si>
     <t>How many shots before you're drunk?</t>
   </si>
   <si>
@@ -74,10 +71,61 @@
     <t>How many pizza slices can you eat before you vomit?</t>
   </si>
   <si>
-    <t>Longest time you went without showering?</t>
-  </si>
-  <si>
     <t>How many bad first dates have you been on?</t>
+  </si>
+  <si>
+    <t>Most number of days you went without showering?</t>
+  </si>
+  <si>
+    <t>How many pairs of shoes do you own?</t>
+  </si>
+  <si>
+    <t>Number of times you've read your favourite book?</t>
+  </si>
+  <si>
+    <t>Most number of times you saw a movie in theatres?</t>
+  </si>
+  <si>
+    <t>Longest time you've been without sleep in hours?</t>
+  </si>
+  <si>
+    <t>Longest TV bingefest you've ever done in hours?</t>
+  </si>
+  <si>
+    <t>Most likely to become a farmer</t>
+  </si>
+  <si>
+    <t>Most likely to be "catfished"</t>
+  </si>
+  <si>
+    <t>Most likely to become internet famous</t>
+  </si>
+  <si>
+    <t>Most likely to survive The Hunger Games</t>
+  </si>
+  <si>
+    <t>Most likely to win a singing competition</t>
+  </si>
+  <si>
+    <t>Most likely to travel the world</t>
+  </si>
+  <si>
+    <t>Most likely to live in a van by the river</t>
+  </si>
+  <si>
+    <t>Most likely to join a nunnery</t>
+  </si>
+  <si>
+    <t>Most likely to be jailed</t>
+  </si>
+  <si>
+    <t>Talks the least; says the most</t>
+  </si>
+  <si>
+    <t>Talks the most; says the least</t>
+  </si>
+  <si>
+    <t>Most likely to own an expensive blender</t>
   </si>
 </sst>
 </file>
@@ -133,11 +181,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B17" totalsRowShown="0">
-  <autoFilter ref="A1:B17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B33" totalsRowShown="0">
+  <autoFilter ref="A1:B33"/>
   <tableColumns count="2">
     <tableColumn id="1" name="superlativeQuestion"/>
-    <tableColumn id="3" name="isRankingRound"/>
+    <tableColumn id="2" name="isRankingRound"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -440,16 +488,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="67.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -457,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -542,7 +590,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -550,7 +598,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -558,7 +606,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -566,7 +614,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -582,10 +630,138 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
